--- a/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_STAFF_150512.xlsx
+++ b/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_STAFF_150512.xlsx
@@ -9,10 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Leyenda" sheetId="6" r:id="rId1"/>
+    <sheet name="A" sheetId="7" r:id="rId2"/>
+    <sheet name="B-E" sheetId="8" r:id="rId3"/>
+    <sheet name="F-I" sheetId="9" r:id="rId4"/>
+    <sheet name="J-L" sheetId="10" r:id="rId5"/>
+    <sheet name="M-Y" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
@@ -24,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="525">
   <si>
     <t>Maximum risk</t>
   </si>
@@ -43,6 +48,1563 @@
   </si>
   <si>
     <t>El importe límite por encima del TCL, que puede asumir un director regional. Se registrará en la BD11 (solo para los DRs; el resto 0). El DR podrá hacer un reparto de riesgo por empresa que se registrará en la BD1 (campo nuevo)</t>
+  </si>
+  <si>
+    <t>Anneleen Van der Broeck</t>
+  </si>
+  <si>
+    <t>AVB</t>
+  </si>
+  <si>
+    <t>Aritz Urabayen Núñez</t>
+  </si>
+  <si>
+    <t>AUN</t>
+  </si>
+  <si>
+    <t>Alfredo Unzueta Ilundáin</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>Alberto Sánchez García</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>Alberto Roversi</t>
+  </si>
+  <si>
+    <t>ARO</t>
+  </si>
+  <si>
+    <t>Asier Razquín Garisoáin</t>
+  </si>
+  <si>
+    <t>ARG</t>
+  </si>
+  <si>
+    <t>Álvaro Pajares Zaragueta</t>
+  </si>
+  <si>
+    <t>APZ</t>
+  </si>
+  <si>
+    <t>Alberto Petri Ortega</t>
+  </si>
+  <si>
+    <t>APO</t>
+  </si>
+  <si>
+    <t>Andrea Purroy Bermejo</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>Andrés Pinilla Antón</t>
+  </si>
+  <si>
+    <t>APA</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>Arancha Orcoyen Goñi</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>Ángel Medrano Urquizu</t>
+  </si>
+  <si>
+    <t>AMU</t>
+  </si>
+  <si>
+    <t>Álvaro Miranda Ordobás</t>
+  </si>
+  <si>
+    <t>AMO</t>
+  </si>
+  <si>
+    <t>Amaia Millor Muruzabal</t>
+  </si>
+  <si>
+    <t>AMM</t>
+  </si>
+  <si>
+    <t>Aitor Mayor Alonso</t>
+  </si>
+  <si>
+    <t>AMA</t>
+  </si>
+  <si>
+    <t>Angel Machin Garcia</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>Ainara Lecumberri Ibero</t>
+  </si>
+  <si>
+    <t>ALI</t>
+  </si>
+  <si>
+    <t>Artiz Lorea Iriguibel</t>
+  </si>
+  <si>
+    <t>ALE</t>
+  </si>
+  <si>
+    <t>Amalia Larrion Esparza</t>
+  </si>
+  <si>
+    <t>ALA</t>
+  </si>
+  <si>
+    <t>Andoni Lana Galdeano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL </t>
+  </si>
+  <si>
+    <t>Alberto Jiménez Novoa</t>
+  </si>
+  <si>
+    <t>AJ</t>
+  </si>
+  <si>
+    <t>Angel Luis Irurzun Muniáin</t>
+  </si>
+  <si>
+    <t>AIM</t>
+  </si>
+  <si>
+    <t>Aitor Irigoyen Hernández</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIH </t>
+  </si>
+  <si>
+    <t>Ander Itoiz Adrián</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AIA </t>
+  </si>
+  <si>
+    <t>Asier Insausti Elizondo</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Antonio José García Merino</t>
+  </si>
+  <si>
+    <t>AGM</t>
+  </si>
+  <si>
+    <t>Ángel García López</t>
+  </si>
+  <si>
+    <t>AGL</t>
+  </si>
+  <si>
+    <t>Amaia García Irastorza</t>
+  </si>
+  <si>
+    <t>AGI</t>
+  </si>
+  <si>
+    <t>Andrea García García</t>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Alberto Gorriz Lopez de Dicastillo</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>Amaia Fernández Urzainqui</t>
+  </si>
+  <si>
+    <t>AFU</t>
+  </si>
+  <si>
+    <t>Ane Foronda Bolinaga</t>
+  </si>
+  <si>
+    <t>AFB</t>
+  </si>
+  <si>
+    <t>Alberto Fernández Ros</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>Andrea Ezquerro Garrido</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>Ana Castillo Martínez</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>Antxon Armendáriz Arostegui</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Ander Aranburu Arriola</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>License (Y/N)</t>
+  </si>
+  <si>
+    <t>Grupos de Usuarios</t>
+  </si>
+  <si>
+    <t>Reporting Line</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Initials</t>
+  </si>
+  <si>
+    <t>Eduardo Trias Munárriz</t>
+  </si>
+  <si>
+    <t>ET</t>
+  </si>
+  <si>
+    <t>Eneko Sanz Uruñuela</t>
+  </si>
+  <si>
+    <t>ESU</t>
+  </si>
+  <si>
+    <t>Edurne Suárez Pejenaute</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>Esther Rodríguez Tomasa</t>
+  </si>
+  <si>
+    <t>ERT</t>
+  </si>
+  <si>
+    <t>Eneko Rebolé Otazu</t>
+  </si>
+  <si>
+    <t>ERO</t>
+  </si>
+  <si>
+    <t>Eva Reyes Oteiza</t>
+  </si>
+  <si>
+    <t>ERH</t>
+  </si>
+  <si>
+    <t>Ernesto Ruiz de Galarreta Arbeo</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>Edurne Oneca Lacuey</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>Endija Osacar Arellano</t>
+  </si>
+  <si>
+    <t>EOA</t>
+  </si>
+  <si>
+    <t>Enrique Ojer Agaldeano</t>
+  </si>
+  <si>
+    <t>EO</t>
+  </si>
+  <si>
+    <t>Edurne Mendoza Marrodan</t>
+  </si>
+  <si>
+    <t>EMM</t>
+  </si>
+  <si>
+    <t>Enrique Murillo Orradre</t>
+  </si>
+  <si>
+    <t>EME</t>
+  </si>
+  <si>
+    <t>Elisa Marín Atienza</t>
+  </si>
+  <si>
+    <t>EMA</t>
+  </si>
+  <si>
+    <t>Eneko Martorell Ordoyo</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>Eduardo Garcia Oses</t>
+  </si>
+  <si>
+    <t>EGO</t>
+  </si>
+  <si>
+    <t>Esther Gómez</t>
+  </si>
+  <si>
+    <t>EG</t>
+  </si>
+  <si>
+    <t>Eduardo Cordovín Santesteban</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>Estefani Crespo Miranda</t>
+  </si>
+  <si>
+    <t>ECM</t>
+  </si>
+  <si>
+    <t>Elena Calbvo Oruezabal</t>
+  </si>
+  <si>
+    <t>EC</t>
+  </si>
+  <si>
+    <t>Eduardo Burguete Archel</t>
+  </si>
+  <si>
+    <t>EBA</t>
+  </si>
+  <si>
+    <t>Ernesto Beorlegui Aranguren</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Esa Alcocer Oteiza</t>
+  </si>
+  <si>
+    <t>EAO</t>
+  </si>
+  <si>
+    <t>Eva Arbiol Alonso</t>
+  </si>
+  <si>
+    <t>EA</t>
+  </si>
+  <si>
+    <t>David Zoco Alzórriz</t>
+  </si>
+  <si>
+    <t>DZ</t>
+  </si>
+  <si>
+    <t>David Sole López</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>David Oteiza Izue</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>Diego Martínez Santamaría</t>
+  </si>
+  <si>
+    <t>DMS</t>
+  </si>
+  <si>
+    <t>Diego Migueliz Lizarraga</t>
+  </si>
+  <si>
+    <t>DML</t>
+  </si>
+  <si>
+    <t>David Mayor Balda</t>
+  </si>
+  <si>
+    <t>DM</t>
+  </si>
+  <si>
+    <t>David Lumbreras Magallón</t>
+  </si>
+  <si>
+    <t>DLM</t>
+  </si>
+  <si>
+    <t>David López Cruz</t>
+  </si>
+  <si>
+    <t>DLC</t>
+  </si>
+  <si>
+    <t>David Lerga Berruezo</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>David Iriarte roteta</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>Diego Calahorra Muñoz</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>David Barricarte Rivas</t>
+  </si>
+  <si>
+    <t>DBR</t>
+  </si>
+  <si>
+    <t>Daniel Barral Carrero</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>David Alcaraz Sánchez</t>
+  </si>
+  <si>
+    <t>DAS</t>
+  </si>
+  <si>
+    <t>Daniel Azparren López</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>Carmen Salvador Ramirez</t>
+  </si>
+  <si>
+    <t>CSR</t>
+  </si>
+  <si>
+    <t>Carlos Salinas del Castillo</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>Carlos Ruiz Gil</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>Cristina Medrano Muñoz</t>
+  </si>
+  <si>
+    <t>CMM</t>
+  </si>
+  <si>
+    <t>Cristina Murillo Campo</t>
+  </si>
+  <si>
+    <t>CMC</t>
+  </si>
+  <si>
+    <t>Carlos Martínez Laita</t>
+  </si>
+  <si>
+    <t>CM</t>
+  </si>
+  <si>
+    <t>Carlos Lezana Visus</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>Carlos Iriarte Arancón</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Carlos Girones Remirez</t>
+  </si>
+  <si>
+    <t>CGR</t>
+  </si>
+  <si>
+    <t>Cristina Egurza Benito</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>Carlos de la Fuente Lanz</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Borja Sauras Altuzarra</t>
+  </si>
+  <si>
+    <t>BSA</t>
+  </si>
+  <si>
+    <t>Bernardo de Riva Silva</t>
+  </si>
+  <si>
+    <t>BRS</t>
+  </si>
+  <si>
+    <t>Beatriz Gil Lizarbe</t>
+  </si>
+  <si>
+    <t>BGL</t>
+  </si>
+  <si>
+    <t>Begoña Goicoechea Labiano</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>Borja Cristóbal Urra</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Beatriz Aldaz Monreal</t>
+  </si>
+  <si>
+    <t>BAM</t>
+  </si>
+  <si>
+    <t>Iñaki Zaro Vicente</t>
+  </si>
+  <si>
+    <t>IZV</t>
+  </si>
+  <si>
+    <t>Ismael Zapatería</t>
+  </si>
+  <si>
+    <t>IZF</t>
+  </si>
+  <si>
+    <t>Ismal Zapatería Azcona</t>
+  </si>
+  <si>
+    <t>IZA</t>
+  </si>
+  <si>
+    <t>Íker Zudaire Latienda</t>
+  </si>
+  <si>
+    <t>IZ</t>
+  </si>
+  <si>
+    <t>Ieva Viblo</t>
+  </si>
+  <si>
+    <t>IVI</t>
+  </si>
+  <si>
+    <t>Itziar Urbiola Loyarte</t>
+  </si>
+  <si>
+    <t>IUL</t>
+  </si>
+  <si>
+    <t>José Ignacio Sedano Escudero</t>
+  </si>
+  <si>
+    <t>ISE</t>
+  </si>
+  <si>
+    <t>Inmaculada Saenz Borge</t>
+  </si>
+  <si>
+    <t>ISB</t>
+  </si>
+  <si>
+    <t>Íñigo Ruiz Lerena</t>
+  </si>
+  <si>
+    <t>IRL</t>
+  </si>
+  <si>
+    <t>Iván Ros Araiz</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>Izare Ochoa Sanz</t>
+  </si>
+  <si>
+    <t>IOS</t>
+  </si>
+  <si>
+    <t>Iñaki Ochoa López de Dicastillo</t>
+  </si>
+  <si>
+    <t>IO</t>
+  </si>
+  <si>
+    <t>Irene Marín García</t>
+  </si>
+  <si>
+    <t>IMG</t>
+  </si>
+  <si>
+    <t>Íñigo Mena Sucunza</t>
+  </si>
+  <si>
+    <t>IM</t>
+  </si>
+  <si>
+    <t>Íker Labiano García</t>
+  </si>
+  <si>
+    <t>ILH</t>
+  </si>
+  <si>
+    <t>Iñigo Landibar Goñi</t>
+  </si>
+  <si>
+    <t>ILG</t>
+  </si>
+  <si>
+    <t>Iratxe López García</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Íñigo Jaúregui Fernández</t>
+  </si>
+  <si>
+    <t>IJ</t>
+  </si>
+  <si>
+    <t>Ion Iraizoz Muñoa</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>Iñaki Herrera Santesteban</t>
+  </si>
+  <si>
+    <t>IHS</t>
+  </si>
+  <si>
+    <t>Isidoro Gutiérrez Tainta</t>
+  </si>
+  <si>
+    <t>IGT</t>
+  </si>
+  <si>
+    <t>Iñaki Gil Martínez</t>
+  </si>
+  <si>
+    <t>IGM</t>
+  </si>
+  <si>
+    <t>Iván Guzmán Burgos</t>
+  </si>
+  <si>
+    <t>IGB</t>
+  </si>
+  <si>
+    <t>Iñaki Guallar Olaverri</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>Ion Echarri Sangüesa</t>
+  </si>
+  <si>
+    <t>IES</t>
+  </si>
+  <si>
+    <t>Íker Esandi Úriz</t>
+  </si>
+  <si>
+    <t>IE</t>
+  </si>
+  <si>
+    <t>Iván Delgado Puente</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Ismael Bernaola Olivares</t>
+  </si>
+  <si>
+    <t>IB</t>
+  </si>
+  <si>
+    <t>Ignacio Alonso Santamaría</t>
+  </si>
+  <si>
+    <t>IAS</t>
+  </si>
+  <si>
+    <t>Igor Arangoa Mariezcurrena</t>
+  </si>
+  <si>
+    <t>IAM</t>
+  </si>
+  <si>
+    <t>Ignacio Amezqueta Ibáñez</t>
+  </si>
+  <si>
+    <t>IAI</t>
+  </si>
+  <si>
+    <t>Íñigo Artieda Ezcurra</t>
+  </si>
+  <si>
+    <t>IAE</t>
+  </si>
+  <si>
+    <t>Ioseba Ayarra Villaverde</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Gaizka Pérez Sagredo</t>
+  </si>
+  <si>
+    <t>GP</t>
+  </si>
+  <si>
+    <t>Guillermo Erviti Palacios</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>Guillermo Donezar Lumbreras</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Gorka Agós Esparza</t>
+  </si>
+  <si>
+    <t>GAE</t>
+  </si>
+  <si>
+    <t>Francisco Javier Ullan Roldan</t>
+  </si>
+  <si>
+    <t>FU</t>
+  </si>
+  <si>
+    <t>Francisco Javier Marcen Goñi</t>
+  </si>
+  <si>
+    <t>FJM</t>
+  </si>
+  <si>
+    <t>Francisco Javier Echevarria Ramírez</t>
+  </si>
+  <si>
+    <t>FJE</t>
+  </si>
+  <si>
+    <t>Francisco Javier Ancin Jiménez</t>
+  </si>
+  <si>
+    <t>FJA</t>
+  </si>
+  <si>
+    <t>Francisco Javier Góngora Arbea</t>
+  </si>
+  <si>
+    <t>FGA</t>
+  </si>
+  <si>
+    <t>Fátima Fernández Osés</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Alberto Barcia González</t>
+  </si>
+  <si>
+    <t>LV</t>
+  </si>
+  <si>
+    <t>Luis Reinaldos Soto</t>
+  </si>
+  <si>
+    <t>LP</t>
+  </si>
+  <si>
+    <t>Luis Pérez Nicuesa</t>
+  </si>
+  <si>
+    <t>Leticia Ostiz Sevilla</t>
+  </si>
+  <si>
+    <t>LO</t>
+  </si>
+  <si>
+    <t>Lesmes Nicolás Haro</t>
+  </si>
+  <si>
+    <t>LN</t>
+  </si>
+  <si>
+    <t>Luis Muguerza Olcoz</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>Leticia Campos Etayo</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Juan Luis Agorreta Malumbres</t>
+  </si>
+  <si>
+    <t>JLA</t>
+  </si>
+  <si>
+    <t>Javier Villanueva Villa</t>
+  </si>
+  <si>
+    <t>JVV</t>
+  </si>
+  <si>
+    <t>Javier Vergara Lecue</t>
+  </si>
+  <si>
+    <t>JV</t>
+  </si>
+  <si>
+    <t>Javier Sola Sanz</t>
+  </si>
+  <si>
+    <t>JSS</t>
+  </si>
+  <si>
+    <t>Jorge Sánchez Jiménez</t>
+  </si>
+  <si>
+    <t>JS</t>
+  </si>
+  <si>
+    <t>Jesús María Riezu Boj</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Jorge Pérez Saiz</t>
+  </si>
+  <si>
+    <t>JPS</t>
+  </si>
+  <si>
+    <t>Juan Pablo Ollo Sancho</t>
+  </si>
+  <si>
+    <t>JPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Pérez Barbachano </t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>Javier Navascués Cornago</t>
+  </si>
+  <si>
+    <t>JNC</t>
+  </si>
+  <si>
+    <t>Javier Naya Errea</t>
+  </si>
+  <si>
+    <t>JN</t>
+  </si>
+  <si>
+    <t>Jorge Martínez García</t>
+  </si>
+  <si>
+    <t>JMG</t>
+  </si>
+  <si>
+    <t>Joaquín Martínez Aróstegui</t>
+  </si>
+  <si>
+    <t>JMF</t>
+  </si>
+  <si>
+    <t>Jesús Mayor Lusarreta</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Jose Luis Sánches García</t>
+  </si>
+  <si>
+    <t>JLS</t>
+  </si>
+  <si>
+    <t>Jose Luis González Pardo</t>
+  </si>
+  <si>
+    <t>JLP</t>
+  </si>
+  <si>
+    <t>Juan Luis Muñoz Ochoa</t>
+  </si>
+  <si>
+    <t>JLM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Javier Laguardia Arraiza </t>
+  </si>
+  <si>
+    <t>JLE</t>
+  </si>
+  <si>
+    <t>Jorge Laguria Piqueras</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>Jose Joaquín Cabrejas Martínez</t>
+  </si>
+  <si>
+    <t>JJC</t>
+  </si>
+  <si>
+    <t>Juan José Astigarraga Castrillo</t>
+  </si>
+  <si>
+    <t>JJA</t>
+  </si>
+  <si>
+    <t>Javier Inza Ilundáin</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>Jessica Hernández Calvo</t>
+  </si>
+  <si>
+    <t>JHJ</t>
+  </si>
+  <si>
+    <t>Julene Goya Zarndona</t>
+  </si>
+  <si>
+    <t>JGZ</t>
+  </si>
+  <si>
+    <t>Jose Luis Gómez Salas</t>
+  </si>
+  <si>
+    <t>JGS</t>
+  </si>
+  <si>
+    <t>Julen Gulina Garate</t>
+  </si>
+  <si>
+    <t>JGG</t>
+  </si>
+  <si>
+    <t>Jon Esteban Soto</t>
+  </si>
+  <si>
+    <t>JES</t>
+  </si>
+  <si>
+    <t>Jesus Echarte Ruiz</t>
+  </si>
+  <si>
+    <t>JER</t>
+  </si>
+  <si>
+    <t>Jokin Elizondo Astráin</t>
+  </si>
+  <si>
+    <t>JEA</t>
+  </si>
+  <si>
+    <t>Joaquín Echarte Beunza</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Juan Carlos Ramirez Solchaga</t>
+  </si>
+  <si>
+    <t>JCR</t>
+  </si>
+  <si>
+    <t>Juan Carlos Jadraque Aznarez</t>
+  </si>
+  <si>
+    <t>JCJ</t>
+  </si>
+  <si>
+    <t>Javier Coloma Calahorra</t>
+  </si>
+  <si>
+    <t>JC</t>
+  </si>
+  <si>
+    <t>Javier Blanco Saralegui</t>
+  </si>
+  <si>
+    <t>JBS</t>
+  </si>
+  <si>
+    <t>Javier Barricarte Rivas</t>
+  </si>
+  <si>
+    <t>JBRI</t>
+  </si>
+  <si>
+    <t>Julián Balda Belzunegui</t>
+  </si>
+  <si>
+    <t>JB</t>
+  </si>
+  <si>
+    <t>Juan Antonio Villoslada López</t>
+  </si>
+  <si>
+    <t>JAV</t>
+  </si>
+  <si>
+    <t>Javier Arrieta Saenz</t>
+  </si>
+  <si>
+    <t>JAT</t>
+  </si>
+  <si>
+    <t>Jorge Acedo Sánchez</t>
+  </si>
+  <si>
+    <t>JAS</t>
+  </si>
+  <si>
+    <t>Javier Arizcuren Rubio</t>
+  </si>
+  <si>
+    <t>JARU</t>
+  </si>
+  <si>
+    <t>Javier Aramendia Romero</t>
+  </si>
+  <si>
+    <t>JAR</t>
+  </si>
+  <si>
+    <t>JAM</t>
+  </si>
+  <si>
+    <t>Jon Asín Muñoa</t>
+  </si>
+  <si>
+    <t>JAH</t>
+  </si>
+  <si>
+    <t>Jesús María Asiáin Herrero</t>
+  </si>
+  <si>
+    <t>JAF</t>
+  </si>
+  <si>
+    <t>Judit Álvarez de Eulate Ezerro</t>
+  </si>
+  <si>
+    <t>JAE</t>
+  </si>
+  <si>
+    <t>José María Arratibel Jaúregui</t>
+  </si>
+  <si>
+    <t>JA</t>
+  </si>
+  <si>
+    <t>Yolanda Llorente Pina</t>
+  </si>
+  <si>
+    <t>YLL</t>
+  </si>
+  <si>
+    <t>Xabier Ozkoidi Roig</t>
+  </si>
+  <si>
+    <t>XO</t>
+  </si>
+  <si>
+    <t>Xabier Juancorena Saldías</t>
+  </si>
+  <si>
+    <t>XJ</t>
+  </si>
+  <si>
+    <t>Vanesa Martinez Garcia</t>
+  </si>
+  <si>
+    <t>VMG</t>
+  </si>
+  <si>
+    <t>Vanesa Martinez Martinez</t>
+  </si>
+  <si>
+    <t>VM</t>
+  </si>
+  <si>
+    <t>Victor Díaz Urtasun</t>
+  </si>
+  <si>
+    <t>VD</t>
+  </si>
+  <si>
+    <t>Urko Aparicio Pérez</t>
+  </si>
+  <si>
+    <t>UA</t>
+  </si>
+  <si>
+    <t>Tamara Arregui Roldán</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Susana Simón Segura</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>Sara Ruiz Sánchez</t>
+  </si>
+  <si>
+    <t>SR</t>
+  </si>
+  <si>
+    <t>Segio López de Echazarreta Elvira</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>Sara Gardeta Donamaría</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>Sonia Gallastegui Aguirre</t>
+  </si>
+  <si>
+    <t>SG</t>
+  </si>
+  <si>
+    <t>Susana Azcona Rey</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Rosa Sánchez-Monge Fernández</t>
+  </si>
+  <si>
+    <t>RSM</t>
+  </si>
+  <si>
+    <t>Ricardo Pérez Perez</t>
+  </si>
+  <si>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>Roberto González Senosiáin</t>
+  </si>
+  <si>
+    <t>RGS</t>
+  </si>
+  <si>
+    <t>Rubén Gómez González</t>
+  </si>
+  <si>
+    <t>RGG</t>
+  </si>
+  <si>
+    <t>Raúl Gil Ruiz</t>
+  </si>
+  <si>
+    <t>RG</t>
+  </si>
+  <si>
+    <t>Raquel Estremera Carrera</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Ruben Beloki Loidi</t>
+  </si>
+  <si>
+    <t>RBL</t>
+  </si>
+  <si>
+    <t>Paula Pernaut Leza</t>
+  </si>
+  <si>
+    <t>PPL</t>
+  </si>
+  <si>
+    <t>Patricia Moreno Compes</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Oscar López Irizábal</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Oscar Gonzalez Mateos</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>Oscar Brave Gomez</t>
+  </si>
+  <si>
+    <t>OB</t>
+  </si>
+  <si>
+    <t>Oscar Apesteguía Martínez</t>
+  </si>
+  <si>
+    <t>OA</t>
+  </si>
+  <si>
+    <t>Nuria Senosiáin Arana</t>
+  </si>
+  <si>
+    <t>NS</t>
+  </si>
+  <si>
+    <t>Nerea Portillo Ruiz-Carrillo</t>
+  </si>
+  <si>
+    <t>NP</t>
+  </si>
+  <si>
+    <t>Naiara López Ruiz</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>Nuria Jimenez Palomo</t>
+  </si>
+  <si>
+    <t>NJP</t>
+  </si>
+  <si>
+    <t>Natalia Jimenez Jodar</t>
+  </si>
+  <si>
+    <t>NJJ</t>
+  </si>
+  <si>
+    <t>Nekane Jara Erasun</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>Nerea Arana Martínez</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>Nuria Aisa Zuezu</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Míkel Zabaleta Maeztu</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>María Santamaría Iruzubieta</t>
+  </si>
+  <si>
+    <t>MSI</t>
+  </si>
+  <si>
+    <t>María Razquín Archel</t>
+  </si>
+  <si>
+    <t>MRA</t>
+  </si>
+  <si>
+    <t>Mario Quiñoa Moirón</t>
+  </si>
+  <si>
+    <t>MQ</t>
+  </si>
+  <si>
+    <t>Miriam Pérez Martín</t>
+  </si>
+  <si>
+    <t>MPM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marc P. Abadie </t>
+  </si>
+  <si>
+    <t>MPA</t>
+  </si>
+  <si>
+    <t>Mónica Pineda Martínez</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Manuel Navarrete Khibit</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Maria Mangado Martinez</t>
+  </si>
+  <si>
+    <t>MMM</t>
+  </si>
+  <si>
+    <t>Mikel Majon Mancho</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>Maite Llorente Elizalde</t>
+  </si>
+  <si>
+    <t>MLL</t>
+  </si>
+  <si>
+    <t>Miguel Lazcoz López de Dicastillo</t>
+  </si>
+  <si>
+    <t>ML</t>
+  </si>
+  <si>
+    <t>Maria Jose Gallastegui Aguirre</t>
+  </si>
+  <si>
+    <t>MJG</t>
+  </si>
+  <si>
+    <t>Marta Jordana Allo</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Miguel Gembero Ustarroz</t>
+  </si>
+  <si>
+    <t>MGU</t>
+  </si>
+  <si>
+    <t>Míkel Gutiérrez Otazu</t>
+  </si>
+  <si>
+    <t>MGO</t>
+  </si>
+  <si>
+    <t>Manuel González López</t>
+  </si>
+  <si>
+    <t>MGL</t>
+  </si>
+  <si>
+    <t>Martín García Etxeberría</t>
+  </si>
+  <si>
+    <t>MGE</t>
+  </si>
+  <si>
+    <t>Míkel García García</t>
+  </si>
+  <si>
+    <t>MG</t>
+  </si>
+  <si>
+    <t>Mara I. Fernández de Zañartu</t>
+  </si>
+  <si>
+    <t>MFZ</t>
+  </si>
+  <si>
+    <t>Marta Fernández González</t>
+  </si>
+  <si>
+    <t>MF</t>
+  </si>
+  <si>
+    <t>María Estenoz Abendaño</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>Marta Elizari Roncal</t>
+  </si>
+  <si>
+    <t>MER</t>
+  </si>
+  <si>
+    <t>Marcos Elcuaz Muñoz</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>Mario Elvira Ruiz</t>
+  </si>
+  <si>
+    <t>MEP</t>
+  </si>
+  <si>
+    <t>Martín Jose Echeverría Echeguia</t>
+  </si>
+  <si>
+    <t>MEE</t>
+  </si>
+  <si>
+    <t>Míkel Erice Zudaire</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Míkel Compains Layana</t>
+  </si>
+  <si>
+    <t>MCL</t>
+  </si>
+  <si>
+    <t>María Carmen Ayanz Díaz</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>Marcos Conde Llenderrozos</t>
+  </si>
+  <si>
+    <t>MC</t>
+  </si>
+  <si>
+    <t>Míkel Bacaicoa Gorriti</t>
+  </si>
+  <si>
+    <t>MBG</t>
+  </si>
+  <si>
+    <t>Míkel Borrega Ayala</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>Miguel Bravo Larea</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>Mateo Assirelli</t>
+  </si>
+  <si>
+    <t>MAS</t>
   </si>
 </sst>
 </file>
@@ -128,7 +1690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -154,6 +1716,26 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,8 +2018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C4:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,10 +2032,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="3:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C5" s="5" t="s">
@@ -508,4 +2090,3725 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="30.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C45" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="29.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I45"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="E45" sqref="E3:I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="32.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55:I55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="28.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" style="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="F1"/>
+      <c r="G1"/>
+      <c r="H1"/>
+      <c r="I1"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:I71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.42578125" style="15"/>
+    <col min="3" max="3" width="30.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>523</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>519</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>511</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>509</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>507</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>505</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>504</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="13" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>501</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>497</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>493</v>
+      </c>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="13" t="s">
+        <v>488</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="13" t="s">
+        <v>478</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B28" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="13" t="s">
+        <v>472</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>470</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="13" t="s">
+        <v>468</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="13" t="s">
+        <v>462</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="13" t="s">
+        <v>446</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>442</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>440</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="13" t="s">
+        <v>436</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>427</v>
+      </c>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B59" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+    </row>
+    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B60" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B61" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B62" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B63" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>